--- a/data/trans_camb/P1412-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1412-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-0.8218450147476728</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.773454548353263</v>
+        <v>-0.7734545483532629</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-0.3890417915387233</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.446603829991982</v>
+        <v>-2.518321494793977</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.355433971563456</v>
+        <v>-2.591761999921248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.934127956462522</v>
+        <v>-1.9081441636569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.32731617552949</v>
+        <v>-2.294180498893735</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.727657433744059</v>
+        <v>-1.607458779467147</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.845160748443676</v>
+        <v>-1.839278892053721</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6614904707129242</v>
+        <v>0.4411590101532519</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4094122368035829</v>
+        <v>0.3612798300919673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3606260501944497</v>
+        <v>0.6603530884224665</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1504471511421713</v>
+        <v>0.1439398486954309</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3197602986520079</v>
+        <v>0.3006017922244603</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01295461712275067</v>
+        <v>-0.009088212259342952</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.6497371591598197</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.6114804518715535</v>
+        <v>-0.6114804518715534</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.5245061359567174</v>
@@ -716,9 +716,7 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
-      <c r="G8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
@@ -734,11 +732,9 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
-      <c r="G9" s="6" t="n">
-        <v>1.722816396642508</v>
-      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.3940949021440345</v>
+        <v>0.8532714076594011</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +764,7 @@
         <v>0.3020566426917581</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.07239078325382121</v>
+        <v>0.07239078325382105</v>
       </c>
     </row>
     <row r="11">
@@ -779,22 +775,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3725907523862529</v>
+        <v>-0.3891952609301497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6182920496152978</v>
+        <v>-0.6387073372114803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8699620101981411</v>
+        <v>-0.9782437331139463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.177717813657048</v>
+        <v>-1.205212707027456</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4127230479439521</v>
+        <v>-0.3376698064135245</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.5167456187495638</v>
+        <v>-0.4899002393667092</v>
       </c>
     </row>
     <row r="12">
@@ -805,22 +801,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.775828820395721</v>
+        <v>1.761704896826657</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.237013786892589</v>
+        <v>1.21942658330637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.025285434427193</v>
+        <v>0.8132594869490306</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4736865486274048</v>
+        <v>0.5325406916387811</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.027690833814773</v>
+        <v>1.074225816190605</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.694050927364365</v>
+        <v>0.6729587496608194</v>
       </c>
     </row>
     <row r="13">
@@ -846,7 +842,7 @@
         <v>0.5955951951641425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1427401241565916</v>
+        <v>0.1427401241565913</v>
       </c>
     </row>
     <row r="14">
@@ -857,16 +853,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9208891822986219</v>
+        <v>-0.9381331529631463</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-0.6453469149833716</v>
+        <v>-0.5267403947793717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7069763801053006</v>
+        <v>-0.662106996680234</v>
       </c>
     </row>
     <row r="15">
@@ -881,10 +877,10 @@
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>4.680686359632272</v>
+        <v>4.815056719816573</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.132087380502812</v>
+        <v>4.274135468251296</v>
       </c>
     </row>
     <row r="16">
@@ -908,7 +904,7 @@
         <v>-0.323069716653869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7252322910675019</v>
+        <v>0.725232291067502</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06811480407909765</v>
@@ -928,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6375110093176212</v>
+        <v>0.5509276240847824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.62933372485742</v>
+        <v>-1.614347371464306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3292345059573561</v>
+        <v>-0.2692571772745903</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.473357594680942</v>
+        <v>-0.445001923664523</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3786529580286069</v>
+        <v>0.3901267197171117</v>
       </c>
     </row>
     <row r="18">
@@ -951,22 +947,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.67422694363299</v>
+        <v>1.746903933858467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.936688414404429</v>
+        <v>2.977663357188618</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.72404758856758</v>
+        <v>1.680657109849471</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4770502445536965</v>
+        <v>0.4718049316419144</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.786257656292096</v>
+        <v>1.893065486442753</v>
       </c>
     </row>
     <row r="19">
@@ -996,7 +992,7 @@
         <v>0.4111782676414515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6.499030875467882</v>
+        <v>6.499030875467878</v>
       </c>
     </row>
     <row r="20">
@@ -1065,22 +1061,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6472058719194276</v>
+        <v>-0.6669077951662148</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.0990674745151362</v>
+        <v>-0.09405452844759524</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.074891949496894</v>
+        <v>-2.067174258329214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.952638989722967</v>
+        <v>-2.880366229096569</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9680011409014075</v>
+        <v>-0.9836265020825017</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.017106158095234</v>
+        <v>-0.9831651065067609</v>
       </c>
     </row>
     <row r="24">
@@ -1091,22 +1087,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.127533928783371</v>
+        <v>2.344845704947321</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.277133551842925</v>
+        <v>3.177142531767723</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9993034732312663</v>
+        <v>0.9981797277640829</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.4037960343664868</v>
+        <v>-0.3937777095783428</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.100825405667561</v>
+        <v>1.147591214061954</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8850272958222407</v>
+        <v>0.957263535779321</v>
       </c>
     </row>
     <row r="25">
@@ -1120,7 +1116,7 @@
         <v>1.146392348325671</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>2.0781367789318</v>
+        <v>2.078136778931799</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.351010772471745</v>
@@ -1143,20 +1139,18 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.7781634873446862</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6292309011228095</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.5924323780159141</v>
+      </c>
+      <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>-0.6857587246343274</v>
+        <v>-0.6953734010940406</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6679319472066293</v>
+        <v>-0.6685922921793954</v>
       </c>
     </row>
     <row r="27">
@@ -1168,15 +1162,13 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="n">
-        <v>3.325003436250704</v>
-      </c>
+      <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>2.611282613904585</v>
+        <v>2.392849181506612</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.996731557617583</v>
+        <v>1.889112459173258</v>
       </c>
     </row>
     <row r="28">
@@ -1217,22 +1209,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.428928534804301</v>
+        <v>-6.726761687981028</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.176533523925712</v>
+        <v>-7.32337775151512</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.275138498737884</v>
+        <v>-2.2876191723077</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.640172507660035</v>
+        <v>-1.905679610319823</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.619577745398993</v>
+        <v>-3.537788991265341</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.315495535636164</v>
+        <v>-3.645843732499884</v>
       </c>
     </row>
     <row r="30">
@@ -1243,22 +1235,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.3779123301045714</v>
+        <v>-0.2687695001855754</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9595250925612966</v>
+        <v>-0.9668926444691084</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6286144320142415</v>
+        <v>0.4800477342916624</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.293809023759118</v>
+        <v>-0.2856726242332371</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.3146528956786173</v>
+        <v>-0.3009209522128765</v>
       </c>
     </row>
     <row r="31">
@@ -1299,9 +1291,7 @@
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H32" s="6" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1315,9 +1305,7 @@
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="n">
-        <v>-0.08517552014813917</v>
-      </c>
+      <c r="H33" s="6" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1346,7 +1334,7 @@
         <v>-0.2386219587964252</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.634643699634916</v>
+        <v>0.6346436996349162</v>
       </c>
     </row>
     <row r="35">
@@ -1360,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.8131383141662941</v>
+        <v>0.8285265942297201</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.091609681432978</v>
+        <v>-3.102225554477377</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.383794761426498</v>
+        <v>-2.262525722992434</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.157754441974209</v>
+        <v>-1.15723854441652</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.3774522934532679</v>
+        <v>-0.3732782948270837</v>
       </c>
     </row>
     <row r="36">
@@ -1383,22 +1371,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.459243426000789</v>
+        <v>2.46514000853296</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.297796605709776</v>
+        <v>3.13917646796804</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.3462923284284403</v>
+        <v>-0.3463271909798624</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.6354186438692683</v>
+        <v>0.7169075373545745</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.4738556962056247</v>
+        <v>0.4734455999574308</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.431415866447872</v>
+        <v>1.495852514051817</v>
       </c>
     </row>
     <row r="37">
@@ -1442,11 +1430,11 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.922243217853563</v>
+        <v>-0.9296752633453503</v>
       </c>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>-0.4717026950082445</v>
+        <v>-0.5451965422881155</v>
       </c>
     </row>
     <row r="39">
@@ -1462,7 +1450,7 @@
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="n">
-        <v>7.133715511900196</v>
+        <v>8.309781104489842</v>
       </c>
     </row>
     <row r="40">
@@ -1503,22 +1491,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8815847234826616</v>
+        <v>-1.037476227357253</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.6305131302194192</v>
+        <v>-0.6254106821857025</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.4858200553757065</v>
+        <v>-0.5469437108221319</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.6395026014944925</v>
+        <v>-0.718346725119712</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.3907394355303684</v>
+        <v>-0.5441614216596887</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.3827542086963784</v>
+        <v>-0.3286256112413779</v>
       </c>
     </row>
     <row r="42">
@@ -1529,22 +1517,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.06237616039801</v>
+        <v>1.146666143384098</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.330896528544522</v>
+        <v>1.372622982639893</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.61869778597706</v>
+        <v>1.602393942138741</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.009502055197504</v>
+        <v>1.051714244127832</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.133124712813906</v>
+        <v>0.9832895544165585</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.9206014383048734</v>
+        <v>0.9254026989925856</v>
       </c>
     </row>
     <row r="43">
@@ -1581,22 +1569,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8294055139087245</v>
+        <v>-0.8707476082848219</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6478518226586344</v>
+        <v>-0.6143486916751383</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6636118691413503</v>
+        <v>-0.6384300128220276</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.674168833990396</v>
+        <v>-0.6561531436484181</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4402429659035154</v>
+        <v>-0.5556358905233019</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3833813202460954</v>
+        <v>-0.3472161596853471</v>
       </c>
     </row>
     <row r="45">
@@ -1607,22 +1595,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.529692181698299</v>
+        <v>3.756289116678326</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>4.229434213538559</v>
+        <v>5.200625832347436</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>6.943306760502821</v>
+        <v>7.955516104223044</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>4.457176123732025</v>
+        <v>5.402121161753556</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3.060706044179863</v>
+        <v>2.398240406287856</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.489663523243271</v>
+        <v>2.393527721594845</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1640,7 @@
         <v>0.02130171798271421</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.0654636551864039</v>
+        <v>-0.0654636551864038</v>
       </c>
     </row>
     <row r="47">
@@ -1663,22 +1651,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.7433853472317482</v>
+        <v>-0.6149147357729021</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.9445767498842504</v>
+        <v>-0.9248478163988112</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.8233017248266086</v>
+        <v>-0.8396047872589965</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.7075952656955025</v>
+        <v>-0.7260742991346758</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5224700791067439</v>
+        <v>-0.5619475117826426</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.6584486515089377</v>
+        <v>-0.577423474113416</v>
       </c>
     </row>
     <row r="48">
@@ -1689,22 +1677,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.9490412006574078</v>
+        <v>0.885458384312732</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.45141381035845</v>
+        <v>0.4317046385324642</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.5353192493911935</v>
+        <v>0.5345207312866551</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.6534211367355875</v>
+        <v>0.6297102509560156</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.5412588083353634</v>
+        <v>0.5228375520360783</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.3367823289048663</v>
+        <v>0.3876579740168939</v>
       </c>
     </row>
     <row r="49">
@@ -1730,7 +1718,7 @@
         <v>0.03898675123095286</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1198126480452075</v>
+        <v>-0.1198126480452073</v>
       </c>
     </row>
     <row r="50">
@@ -1741,20 +1729,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.773040397282674</v>
+        <v>-0.7881671923422581</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="E50" s="6" t="inlineStr"/>
+      <c r="E50" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F50" s="6" t="n">
-        <v>-0.7748371341963036</v>
+        <v>-0.8039341874434142</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6565367502398118</v>
+        <v>-0.6825573689249707</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.7141443849849032</v>
+        <v>-0.6836446329475901</v>
       </c>
     </row>
     <row r="51">
@@ -1765,20 +1755,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>4.74253468800558</v>
+        <v>3.954154664651052</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>3.016908419437413</v>
-      </c>
-      <c r="E51" s="6" t="inlineStr"/>
+        <v>2.516840092889309</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>3.424564560330322</v>
+      </c>
       <c r="F51" s="6" t="n">
-        <v>3.99671183908838</v>
+        <v>4.13176009265328</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.920169372431455</v>
+        <v>2.070707906652404</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.317967398335642</v>
+        <v>1.575311937670858</v>
       </c>
     </row>
     <row r="52">
@@ -1808,7 +1800,7 @@
         <v>-0.03068744711964928</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.05503773529656189</v>
+        <v>0.0550377352965618</v>
       </c>
     </row>
     <row r="53">
@@ -1819,22 +1811,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.3644151434448497</v>
+        <v>-0.3755916408915214</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.1904150240862809</v>
+        <v>-0.1813826461119317</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.5246995822764048</v>
+        <v>-0.5611279281173182</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.5125158476836567</v>
+        <v>-0.4720450488069407</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.3219932431355966</v>
+        <v>-0.3343159367920724</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.2326244288880947</v>
+        <v>-0.2252117238322332</v>
       </c>
     </row>
     <row r="54">
@@ -1845,22 +1837,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.5001585504999077</v>
+        <v>0.4737844289261953</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.6630088523029487</v>
+        <v>0.6797203796681611</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.2444429109129335</v>
+        <v>0.2014882530989862</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.1866618159744635</v>
+        <v>0.1756356653384053</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.2354839624745741</v>
+        <v>0.2171317576869706</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.3080533650566308</v>
+        <v>0.3129157879672007</v>
       </c>
     </row>
     <row r="55">
@@ -1886,7 +1878,7 @@
         <v>-0.04485998267444583</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.08045608493329501</v>
+        <v>0.08045608493329488</v>
       </c>
     </row>
     <row r="56">
@@ -1897,22 +1889,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4199204903964374</v>
+        <v>-0.4222661110806235</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2356284329213242</v>
+        <v>-0.2266428036438132</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.5867864025515792</v>
+        <v>-0.6086078636185468</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.5494492697527887</v>
+        <v>-0.5088418743119277</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3870548009858029</v>
+        <v>-0.4014596512690302</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2782647634005576</v>
+        <v>-0.2603167090740542</v>
       </c>
     </row>
     <row r="57">
@@ -1923,22 +1915,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.048421439698183</v>
+        <v>0.9892748267945826</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.451239523043327</v>
+        <v>1.486297491120385</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.5089917843938881</v>
+        <v>0.4227548013569031</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3641986685433899</v>
+        <v>0.3568601278747416</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4444249836719687</v>
+        <v>0.4130917343362009</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5830351823959093</v>
+        <v>0.6017892572897474</v>
       </c>
     </row>
     <row r="58">
